--- a/data/trans_orig/P36B16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B16-Habitat-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>4727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1804</v>
+        <v>1917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12260</v>
+        <v>12570</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006463397808570881</v>
+        <v>0.00646339780857088</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00246706423272431</v>
+        <v>0.00262099497893987</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01676538348605962</v>
+        <v>0.01718862921174348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -775,19 +775,19 @@
         <v>4727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1679</v>
+        <v>1798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11923</v>
+        <v>12903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003323916487315639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00118054382592644</v>
+        <v>0.001264693232261133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008384626371032464</v>
+        <v>0.009074205200248766</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>57430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42515</v>
+        <v>43444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76751</v>
+        <v>78465</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08314611796520703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06155260398574491</v>
+        <v>0.06289727145637898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1111192896688184</v>
+        <v>0.1136000408400302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>119</v>
@@ -825,19 +825,19 @@
         <v>64303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52690</v>
+        <v>51805</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78419</v>
+        <v>78345</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08793142361110984</v>
+        <v>0.08793142361110982</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07205141918350419</v>
+        <v>0.07084104183140211</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1072338370189521</v>
+        <v>0.1071326581596584</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -846,19 +846,19 @@
         <v>121733</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102693</v>
+        <v>101804</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144327</v>
+        <v>144443</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08560704591740094</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07221773716517486</v>
+        <v>0.07159230435974091</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1014963819313297</v>
+        <v>0.1015772982604913</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>438040</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>409667</v>
+        <v>412020</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>463504</v>
+        <v>464399</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6341875042447368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5931096359662928</v>
+        <v>0.5965161367118017</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6710538620687122</v>
+        <v>0.6723503378018699</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>804</v>
@@ -896,19 +896,19 @@
         <v>459185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>436604</v>
+        <v>435068</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>478726</v>
+        <v>480464</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6279133077317713</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5970351675463471</v>
+        <v>0.5949340700163855</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6546345207305272</v>
+        <v>0.657011766292285</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1284</v>
@@ -917,19 +917,19 @@
         <v>897224</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>859245</v>
+        <v>863458</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>930098</v>
+        <v>932579</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6309608878655857</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6042526070639922</v>
+        <v>0.6072155593666351</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6540790798362732</v>
+        <v>0.6558241734391771</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>184278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>162213</v>
+        <v>158495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>210645</v>
+        <v>209338</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2667943158392268</v>
+        <v>0.2667943158392267</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2348490268076814</v>
+        <v>0.2294673399485138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3049682685026974</v>
+        <v>0.3030765371605521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -967,19 +967,19 @@
         <v>194631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176637</v>
+        <v>173960</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216886</v>
+        <v>215450</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2661487313434146</v>
+        <v>0.2661487313434145</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2415425436260272</v>
+        <v>0.2378825450008963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.296581272670758</v>
+        <v>0.2946175504519674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>479</v>
@@ -988,19 +988,19 @@
         <v>378908</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>347821</v>
+        <v>349152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413999</v>
+        <v>412055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2664623126091703</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2446007099875118</v>
+        <v>0.2455363996603217</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2911391905887201</v>
+        <v>0.2897722697628781</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>10963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4363</v>
+        <v>5013</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25130</v>
+        <v>25135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01587206195082943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006316009932881443</v>
+        <v>0.007257556653250515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03638329622796112</v>
+        <v>0.0363903284503131</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1038,19 +1038,19 @@
         <v>8441</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4105</v>
+        <v>4316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19915</v>
+        <v>20432</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01154313950513342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005614065296519482</v>
+        <v>0.005901467410968773</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02723338142569902</v>
+        <v>0.02794021617383952</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -1059,19 +1059,19 @@
         <v>19404</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11092</v>
+        <v>11532</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35534</v>
+        <v>35487</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01364583712052747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007800372193982708</v>
+        <v>0.008109587813422746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02498911544895928</v>
+        <v>0.0249556271051174</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>10794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5100</v>
+        <v>4855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21103</v>
+        <v>22787</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01029094927213286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004861986950260278</v>
+        <v>0.004628987140055295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02011876972697764</v>
+        <v>0.02172474111934491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1184,19 +1184,19 @@
         <v>9772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5545</v>
+        <v>5546</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16378</v>
+        <v>16662</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00913252624981172</v>
+        <v>0.009132526249811724</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005182405883430672</v>
+        <v>0.005183142944283922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01530677685122781</v>
+        <v>0.0155718208173661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1205,19 +1205,19 @@
         <v>20566</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13039</v>
+        <v>12959</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31916</v>
+        <v>31996</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009705977684779158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006153553200484845</v>
+        <v>0.006115953583765737</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01506252735160068</v>
+        <v>0.01510021792919532</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>55409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40945</v>
+        <v>41386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72257</v>
+        <v>74426</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05282520175055632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0390359361850519</v>
+        <v>0.03945582326928095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06888678184487546</v>
+        <v>0.07095532119905348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -1255,19 +1255,19 @@
         <v>94881</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78619</v>
+        <v>80262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115881</v>
+        <v>116567</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08867442764979948</v>
+        <v>0.08867442764979949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07347675426553889</v>
+        <v>0.075011810691442</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1083011415096562</v>
+        <v>0.1089425460680481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>187</v>
@@ -1276,19 +1276,19 @@
         <v>150290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>127344</v>
+        <v>127260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>175402</v>
+        <v>176284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07092806933485434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06009899835923227</v>
+        <v>0.06005908419276232</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08277960901344178</v>
+        <v>0.08319568707047488</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>637766</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>602652</v>
+        <v>602265</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>674330</v>
+        <v>675469</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6080235486356476</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5745464862072838</v>
+        <v>0.5741782433544157</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6428825771002468</v>
+        <v>0.6439678922231525</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>920</v>
@@ -1326,19 +1326,19 @@
         <v>628368</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>597474</v>
+        <v>599451</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>657161</v>
+        <v>657420</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5872655866006962</v>
+        <v>0.5872655866006963</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5583928566537256</v>
+        <v>0.5602404461992475</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6141751881080492</v>
+        <v>0.6144174668855686</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1525</v>
@@ -1347,19 +1347,19 @@
         <v>1266134</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1222391</v>
+        <v>1219832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1312640</v>
+        <v>1313580</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5975413519183527</v>
+        <v>0.5975413519183526</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5768971681239837</v>
+        <v>0.5756897000027427</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6194896657625778</v>
+        <v>0.6199330692333788</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>322506</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>288067</v>
+        <v>286589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>356611</v>
+        <v>355869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3074654410697343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.274632942820471</v>
+        <v>0.2732237333556758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.339980656432757</v>
+        <v>0.339273074897785</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>422</v>
@@ -1397,19 +1397,19 @@
         <v>316662</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>290955</v>
+        <v>288365</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>344723</v>
+        <v>342345</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2959492079313815</v>
+        <v>0.2959492079313816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2719229017438179</v>
+        <v>0.2695026711277255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3221745781819834</v>
+        <v>0.3199518133901537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>699</v>
@@ -1418,19 +1418,19 @@
         <v>639168</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>597404</v>
+        <v>593756</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>680446</v>
+        <v>684643</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3016500618434313</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2819400554966912</v>
+        <v>0.2802183145503415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3211308804995757</v>
+        <v>0.3231114046758646</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>22441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13899</v>
+        <v>13075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36013</v>
+        <v>35331</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02139485927192888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01325041540633201</v>
+        <v>0.01246533585181393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03433337677640711</v>
+        <v>0.03368312924992556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1468,19 +1468,19 @@
         <v>20307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12965</v>
+        <v>13290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30195</v>
+        <v>30395</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01897825156831113</v>
+        <v>0.01897825156831114</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01211652525820691</v>
+        <v>0.01242065770700325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02821952315117739</v>
+        <v>0.02840662577864757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -1489,19 +1489,19 @@
         <v>42748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30446</v>
+        <v>30279</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59533</v>
+        <v>57655</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02017453921858262</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01436872481847109</v>
+        <v>0.01428994588677561</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02809595194443314</v>
+        <v>0.02720997409760462</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>7779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18093</v>
+        <v>19032</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.00968608458851505</v>
+        <v>0.009686084588515052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003314415973153351</v>
+        <v>0.003318262370421978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0225294989961146</v>
+        <v>0.02369844647923201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1614,19 +1614,19 @@
         <v>8730</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4868</v>
+        <v>4822</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14410</v>
+        <v>14342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01074784063815226</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005993764891545985</v>
+        <v>0.005936112348413788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01774015491550569</v>
+        <v>0.01765741256553228</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1635,19 +1635,19 @@
         <v>16509</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9837</v>
+        <v>9833</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27728</v>
+        <v>27730</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01021998148695854</v>
+        <v>0.01021998148695855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006089759713357034</v>
+        <v>0.006087293930948505</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01716543072502234</v>
+        <v>0.01716673898152329</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>67439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50807</v>
+        <v>51109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86612</v>
+        <v>86830</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08397629083957271</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06326558353596619</v>
+        <v>0.06364195344807519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1078509072230448</v>
+        <v>0.1081221568358102</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -1685,19 +1685,19 @@
         <v>79951</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64868</v>
+        <v>64690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97481</v>
+        <v>97526</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09842993675306151</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07986107880883857</v>
+        <v>0.0796419969823336</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1200126832322678</v>
+        <v>0.1200676995186009</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -1706,19 +1706,19 @@
         <v>147390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>124298</v>
+        <v>124369</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171255</v>
+        <v>173719</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09124420961154382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07694908922991578</v>
+        <v>0.07699300126831236</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1060184163426028</v>
+        <v>0.1075437234752802</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>452042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>418089</v>
+        <v>419742</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>484861</v>
+        <v>485631</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.56289061725689</v>
+        <v>0.5628906172568899</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.520611659512506</v>
+        <v>0.5226700422823491</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6037566782410568</v>
+        <v>0.6047158318300264</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>573</v>
@@ -1756,19 +1756,19 @@
         <v>447987</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>422179</v>
+        <v>420766</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>473846</v>
+        <v>472714</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5515316170706253</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5197593640382822</v>
+        <v>0.5180191048889768</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5833682855223581</v>
+        <v>0.5819748265937307</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>940</v>
@@ -1777,19 +1777,19 @@
         <v>900029</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>855318</v>
+        <v>860133</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>941566</v>
+        <v>943095</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5571788203041549</v>
+        <v>0.557178820304155</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5294996556951204</v>
+        <v>0.5324804917360246</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5828932047135569</v>
+        <v>0.5838399598243559</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>254320</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>226515</v>
+        <v>223135</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>286230</v>
+        <v>286737</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3166837608491346</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2820601059635087</v>
+        <v>0.2778508819441138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3564184691281119</v>
+        <v>0.3570497615383592</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>341</v>
@@ -1827,19 +1827,19 @@
         <v>264066</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>238050</v>
+        <v>240270</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>290604</v>
+        <v>289748</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3251012466312175</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2930713269569891</v>
+        <v>0.2958048990229937</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3577720671344305</v>
+        <v>0.3567182356083031</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>573</v>
@@ -1848,19 +1848,19 @@
         <v>518387</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>480858</v>
+        <v>478069</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>560055</v>
+        <v>556071</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3209164370399431</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2976837671998345</v>
+        <v>0.2959570357130017</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3467120461412622</v>
+        <v>0.3442456738158821</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>21493</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13070</v>
+        <v>11838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39389</v>
+        <v>35655</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02676324646588774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01627495479823218</v>
+        <v>0.01474109897693268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04904779682512909</v>
+        <v>0.04439779269818064</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1898,19 +1898,19 @@
         <v>11525</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6283</v>
+        <v>6433</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20591</v>
+        <v>20290</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01418935890694346</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007735791846782247</v>
+        <v>0.00791978968767609</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02535040692693758</v>
+        <v>0.0249796972232035</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -1919,19 +1919,19 @@
         <v>33018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21798</v>
+        <v>21789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49587</v>
+        <v>50060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02044055155739965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01349461462182517</v>
+        <v>0.01348897994916639</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03069776949626626</v>
+        <v>0.0309904127297609</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>14521</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8314</v>
+        <v>8024</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22980</v>
+        <v>22871</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01466682890291632</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008397381807159038</v>
+        <v>0.008104128899797777</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02321060735015027</v>
+        <v>0.02310103456995965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -2044,19 +2044,19 @@
         <v>19809</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13156</v>
+        <v>12890</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30235</v>
+        <v>29966</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01775361102528276</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01179104573505638</v>
+        <v>0.01155254403080431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02709723337253627</v>
+        <v>0.02685685817870377</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2065,19 +2065,19 @@
         <v>34330</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24590</v>
+        <v>24774</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48010</v>
+        <v>47126</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01630236143292211</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01167692355610826</v>
+        <v>0.01176431290342541</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02279859300604197</v>
+        <v>0.02237869928326515</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>108199</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86442</v>
+        <v>88374</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>129356</v>
+        <v>129646</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1092853460903226</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08731013591840042</v>
+        <v>0.08926076285963452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1306539931131506</v>
+        <v>0.1309472278923557</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>223</v>
@@ -2115,19 +2115,19 @@
         <v>144710</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127074</v>
+        <v>127426</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>164949</v>
+        <v>165139</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1296932471983075</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1138878184179766</v>
+        <v>0.11420298493673</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1478327364815145</v>
+        <v>0.1480031546836173</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>344</v>
@@ -2136,19 +2136,19 @@
         <v>252909</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>224727</v>
+        <v>226878</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>281411</v>
+        <v>282439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1200984792523295</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1067157584971737</v>
+        <v>0.1077370638209866</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1336333547027704</v>
+        <v>0.1341214964483121</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>534884</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>504040</v>
+        <v>503091</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>571083</v>
+        <v>569706</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5402529226337082</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5090995960149556</v>
+        <v>0.5081410904253978</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5768149536813636</v>
+        <v>0.5754247262546123</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>884</v>
@@ -2186,19 +2186,19 @@
         <v>624401</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>596726</v>
+        <v>595688</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>655135</v>
+        <v>655108</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.559607551760041</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5348045077589463</v>
+        <v>0.5338744768384617</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5871525992367629</v>
+        <v>0.5871284522264091</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1437</v>
@@ -2207,19 +2207,19 @@
         <v>1159284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1115109</v>
+        <v>1115133</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1206006</v>
+        <v>1207868</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5505079792873493</v>
+        <v>0.5505079792873495</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5295304054877742</v>
+        <v>0.5295416792675685</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5726947243473003</v>
+        <v>0.5735785491655636</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>305829</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>273667</v>
+        <v>273015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>334868</v>
+        <v>335659</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3088993053394651</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2764138611120756</v>
+        <v>0.275755756223023</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3382291168939053</v>
+        <v>0.3390285731496743</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>390</v>
@@ -2257,19 +2257,19 @@
         <v>297424</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>273102</v>
+        <v>270853</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>326077</v>
+        <v>325210</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2665608883641195</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2447624255214431</v>
+        <v>0.242747454955858</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2922405376676052</v>
+        <v>0.2914632201970976</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>680</v>
@@ -2278,19 +2278,19 @@
         <v>603254</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>562912</v>
+        <v>553295</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>645366</v>
+        <v>640999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.286466281080843</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2673094943255819</v>
+        <v>0.2627423868309261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3064643086721247</v>
+        <v>0.3043905735455127</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>26628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17640</v>
+        <v>17323</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40429</v>
+        <v>41311</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02689559703358781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01781708703966689</v>
+        <v>0.01749736057335208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04083485723812779</v>
+        <v>0.04172543054278002</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -2328,19 +2328,19 @@
         <v>29440</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20593</v>
+        <v>21321</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42462</v>
+        <v>44581</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02638470165224931</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01845614919417647</v>
+        <v>0.0191081970233657</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03805582633006768</v>
+        <v>0.03995460510271828</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>60</v>
@@ -2349,19 +2349,19 @@
         <v>56068</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>42178</v>
+        <v>41624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>71790</v>
+        <v>71752</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02662489894655592</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0200288662924467</v>
+        <v>0.01976595441115759</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03409077922513237</v>
+        <v>0.03407268487944126</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>33094</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22618</v>
+        <v>22139</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47189</v>
+        <v>47923</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.009367758161550695</v>
+        <v>0.009367758161550692</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006402218561743029</v>
+        <v>0.006266679421409406</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.013357660016996</v>
+        <v>0.01356539488544056</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>58</v>
@@ -2474,19 +2474,19 @@
         <v>43037</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33330</v>
+        <v>32472</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56358</v>
+        <v>55160</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01154031603038341</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008937286668446591</v>
+        <v>0.008707347623177647</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01511206140548445</v>
+        <v>0.01479081640069321</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>90</v>
@@ -2495,19 +2495,19 @@
         <v>76132</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>59766</v>
+        <v>60205</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>95681</v>
+        <v>93898</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01048343825870404</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008229902261629814</v>
+        <v>0.008290393234463803</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01317541500110401</v>
+        <v>0.01292993581104928</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>288477</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>253521</v>
+        <v>252239</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>326614</v>
+        <v>324120</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08165777079076854</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07176285938548119</v>
+        <v>0.07139982818632043</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09245295516677859</v>
+        <v>0.09174678258955783</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>581</v>
@@ -2545,19 +2545,19 @@
         <v>383844</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>351103</v>
+        <v>353316</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>420936</v>
+        <v>419362</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1029260273681421</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09414684856144864</v>
+        <v>0.09474019843740915</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1128722713764894</v>
+        <v>0.1124500888260736</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>869</v>
@@ -2566,19 +2566,19 @@
         <v>672321</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>621248</v>
+        <v>620484</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>721417</v>
+        <v>718172</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.09257972177993845</v>
+        <v>0.09257972177993844</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08554689469524646</v>
+        <v>0.08544159748943453</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09934033507830188</v>
+        <v>0.09889344938023192</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>2062732</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2003384</v>
+        <v>1996672</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2131905</v>
+        <v>2125349</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5838864902059502</v>
+        <v>0.5838864902059503</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5670872292587379</v>
+        <v>0.5651873609584959</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6034670298090892</v>
+        <v>0.6016110336228238</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3181</v>
@@ -2616,19 +2616,19 @@
         <v>2159939</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2108188</v>
+        <v>2107487</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2216650</v>
+        <v>2214017</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5791781962172482</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5653014515633568</v>
+        <v>0.5651134466116252</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5943848766271104</v>
+        <v>0.5936788847180346</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5186</v>
@@ -2637,19 +2637,19 @@
         <v>4222671</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4143038</v>
+        <v>4140899</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4309050</v>
+        <v>4310389</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5814686260053691</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.570503029723505</v>
+        <v>0.5702085169855746</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5933630922606923</v>
+        <v>0.5935475511507365</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>1066933</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1000494</v>
+        <v>1008714</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1121945</v>
+        <v>1128023</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3020109729866096</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2832044398877673</v>
+        <v>0.2855311834370107</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3175830905795023</v>
+        <v>0.3193034740637945</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1449</v>
@@ -2687,19 +2687,19 @@
         <v>1072784</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1022634</v>
+        <v>1021791</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1123668</v>
+        <v>1118606</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2876622556809867</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2742148350270092</v>
+        <v>0.2739888079861221</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3013066322880341</v>
+        <v>0.2999492683683413</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2431</v>
@@ -2708,19 +2708,19 @@
         <v>2139717</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2059274</v>
+        <v>2060534</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2217393</v>
+        <v>2219940</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2946424335579387</v>
+        <v>0.2946424335579386</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2835653685038646</v>
+        <v>0.2837388962464815</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3053386167910741</v>
+        <v>0.3056893461178707</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>81526</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>61712</v>
+        <v>61982</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>106364</v>
+        <v>103703</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02307700785512112</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01746843012587225</v>
+        <v>0.01754486620395429</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03010789979872012</v>
+        <v>0.0293547314755099</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>86</v>
@@ -2758,19 +2758,19 @@
         <v>69713</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55132</v>
+        <v>55515</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>86151</v>
+        <v>89368</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01869320470323954</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0147833112436965</v>
+        <v>0.0148860551626779</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02310104197535099</v>
+        <v>0.02396360615556189</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>155</v>
@@ -2779,19 +2779,19 @@
         <v>151238</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>126093</v>
+        <v>127276</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>183850</v>
+        <v>182175</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02082578039804989</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01736318138302015</v>
+        <v>0.01752613044872984</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02531643388367461</v>
+        <v>0.0250857928223592</v>
       </c>
     </row>
     <row r="33">
